--- a/downloads/final_merged_list.xlsx
+++ b/downloads/final_merged_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="491">
   <si>
     <t>Ticker</t>
   </si>
@@ -754,9 +754,6 @@
     <t>EWBC</t>
   </si>
   <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>OMC</t>
   </si>
   <si>
@@ -785,9 +782,6 @@
   </si>
   <si>
     <t>SNX</t>
-  </si>
-  <si>
-    <t>YMM</t>
   </si>
   <si>
     <t>UNM</t>
@@ -1850,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B492"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2005,7 +1999,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2565,7 +2559,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3405,7 +3399,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3877,7 +3871,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3885,7 +3879,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3893,7 +3887,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3901,7 +3895,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3933,7 +3927,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3949,7 +3943,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4013,7 +4007,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4021,7 +4015,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4029,7 +4023,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4037,7 +4031,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4069,7 +4063,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4085,7 +4079,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4213,7 +4207,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4229,7 +4223,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4237,7 +4231,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4261,7 +4255,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4277,7 +4271,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4285,7 +4279,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4381,7 +4375,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4397,7 +4391,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4501,7 +4495,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4509,7 +4503,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4517,7 +4511,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4525,7 +4519,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4597,7 +4591,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4613,7 +4607,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4653,7 +4647,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4669,7 +4663,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4709,7 +4703,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4725,7 +4719,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4757,7 +4751,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4773,7 +4767,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4781,7 +4775,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4813,7 +4807,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4837,7 +4831,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4853,7 +4847,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4893,7 +4887,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4909,7 +4903,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4933,7 +4927,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4949,7 +4943,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5013,7 +5007,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5021,7 +5015,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5029,7 +5023,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5037,7 +5031,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5061,7 +5055,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5077,7 +5071,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5412,9 +5406,6 @@
       <c r="A445" t="s">
         <v>445</v>
       </c>
-      <c r="B445">
-        <v>1</v>
-      </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
@@ -5428,6 +5419,9 @@
       <c r="A447" t="s">
         <v>447</v>
       </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
@@ -5442,7 +5436,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5458,7 +5452,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5466,7 +5460,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5474,7 +5468,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5482,7 +5476,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5490,7 +5484,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5498,7 +5492,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5506,7 +5500,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5514,7 +5508,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5522,7 +5516,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5530,7 +5524,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5538,7 +5532,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5546,7 +5540,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5554,7 +5548,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5570,7 +5564,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5578,7 +5572,7 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5594,7 +5588,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5610,7 +5604,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5618,7 +5612,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5626,7 +5620,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5634,7 +5628,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5642,7 +5636,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5650,7 +5644,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5658,7 +5652,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5666,7 +5660,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5698,7 +5692,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5706,7 +5700,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5714,7 +5708,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5722,7 +5716,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5738,7 +5732,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5746,7 +5740,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5754,7 +5748,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5770,22 +5764,6 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
-      <c r="A491" t="s">
-        <v>491</v>
-      </c>
-      <c r="B491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
-      <c r="A492" t="s">
-        <v>492</v>
-      </c>
-      <c r="B492">
         <v>1</v>
       </c>
     </row>
